--- a/backend/fms_core/tests/valid_templates/Normalization_planning_v4_5_0_Library.xlsx
+++ b/backend/fms_core/tests/valid_templates/Normalization_planning_v4_5_0_Library.xlsx
@@ -144,10 +144,10 @@
     <t xml:space="preserve">Source Container Coord</t>
   </si>
   <si>
-    <t xml:space="preserve">Source Container Location Barcode</t>
+    <t xml:space="preserve">Source Parent Container Barcode</t>
   </si>
   <si>
-    <t xml:space="preserve">Source Container Location Coord</t>
+    <t xml:space="preserve">Source Parent Container Coord</t>
   </si>
   <si>
     <t xml:space="preserve">Destination Container Barcode</t>
